--- a/src/main/resources/Risultati3.xlsx
+++ b/src/main/resources/Risultati3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteomancinelli/Desktop/Uni/Stage/PiattaformaPCTO_v2/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513494F9-B87A-7D47-BE4A-847ED92B2ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03094C5-439D-5C43-BD0F-91C0E05DCC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -906,12 +906,12 @@
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="14" max="14" width="13.5" customWidth="1"/>
